--- a/Code/Results/Cases/Case_5_155/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_155/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007551759359025</v>
+        <v>1.045608419067008</v>
       </c>
       <c r="D2">
-        <v>1.024679556814556</v>
+        <v>1.048080382523962</v>
       </c>
       <c r="E2">
-        <v>1.010510230679907</v>
+        <v>1.043079053674487</v>
       </c>
       <c r="F2">
-        <v>0.9848042792019271</v>
+        <v>1.044447821620052</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04778997806803</v>
+        <v>1.044609206762441</v>
       </c>
       <c r="J2">
-        <v>1.029508921060529</v>
+        <v>1.050667243542235</v>
       </c>
       <c r="K2">
-        <v>1.035805448678819</v>
+        <v>1.050841225952017</v>
       </c>
       <c r="L2">
-        <v>1.021825057771939</v>
+        <v>1.045853932001868</v>
       </c>
       <c r="M2">
-        <v>0.9964794540872609</v>
+        <v>1.047218844371849</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.015671116225088</v>
+        <v>1.047079355999303</v>
       </c>
       <c r="D3">
-        <v>1.031174512659432</v>
+        <v>1.049255227248778</v>
       </c>
       <c r="E3">
-        <v>1.017566493164585</v>
+        <v>1.044372084595887</v>
       </c>
       <c r="F3">
-        <v>0.9957293200944413</v>
+        <v>1.046546796370809</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051444533097154</v>
+        <v>1.045159702223752</v>
       </c>
       <c r="J3">
-        <v>1.03574349978239</v>
+        <v>1.051783338939877</v>
       </c>
       <c r="K3">
-        <v>1.041423462402835</v>
+        <v>1.051827104596299</v>
       </c>
       <c r="L3">
-        <v>1.027979434937706</v>
+        <v>1.046956663991478</v>
       </c>
       <c r="M3">
-        <v>1.006417138298362</v>
+        <v>1.049125703094741</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.020732079167526</v>
+        <v>1.048028127108215</v>
       </c>
       <c r="D4">
-        <v>1.03522475851498</v>
+        <v>1.050012815318831</v>
       </c>
       <c r="E4">
-        <v>1.021964181356151</v>
+        <v>1.045205566982231</v>
       </c>
       <c r="F4">
-        <v>1.002531330353555</v>
+        <v>1.047901574026911</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05370733995578</v>
+        <v>1.04551302914096</v>
       </c>
       <c r="J4">
-        <v>1.039619923543794</v>
+        <v>1.052502111585901</v>
       </c>
       <c r="K4">
-        <v>1.044915856439336</v>
+        <v>1.052461852011942</v>
       </c>
       <c r="L4">
-        <v>1.031804552770674</v>
+        <v>1.047666472505621</v>
       </c>
       <c r="M4">
-        <v>1.012599300155587</v>
+        <v>1.050355808828113</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.022816639172132</v>
+        <v>1.048426278985596</v>
       </c>
       <c r="D5">
-        <v>1.036893355305641</v>
+        <v>1.050330688430902</v>
       </c>
       <c r="E5">
-        <v>1.023775321252272</v>
+        <v>1.04555520894601</v>
       </c>
       <c r="F5">
-        <v>1.005331671091242</v>
+        <v>1.048470330578879</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054635701509053</v>
+        <v>1.045660883694323</v>
       </c>
       <c r="J5">
-        <v>1.04121423870109</v>
+        <v>1.052803475951626</v>
       </c>
       <c r="K5">
-        <v>1.046352038847485</v>
+        <v>1.052727946741117</v>
       </c>
       <c r="L5">
-        <v>1.033377398268329</v>
+        <v>1.047963992580435</v>
       </c>
       <c r="M5">
-        <v>1.01514317412057</v>
+        <v>1.05087206533389</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.02316420408542</v>
+        <v>1.048493089071074</v>
       </c>
       <c r="D6">
-        <v>1.037171582942694</v>
+        <v>1.050384024812592</v>
       </c>
       <c r="E6">
-        <v>1.024077282820366</v>
+        <v>1.045613871467582</v>
       </c>
       <c r="F6">
-        <v>1.005798515752248</v>
+        <v>1.048565781495502</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054790273436132</v>
+        <v>1.045685669168332</v>
       </c>
       <c r="J6">
-        <v>1.041479925253325</v>
+        <v>1.052854029284221</v>
       </c>
       <c r="K6">
-        <v>1.046591361460446</v>
+        <v>1.052772581306626</v>
       </c>
       <c r="L6">
-        <v>1.033639484694365</v>
+        <v>1.04801389600083</v>
       </c>
       <c r="M6">
-        <v>1.01556718652883</v>
+        <v>1.050958696051607</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.020760098553728</v>
+        <v>1.048033450013649</v>
       </c>
       <c r="D7">
-        <v>1.035247185542052</v>
+        <v>1.050017065167761</v>
       </c>
       <c r="E7">
-        <v>1.021988526575919</v>
+        <v>1.045210241864725</v>
       </c>
       <c r="F7">
-        <v>1.002568975479992</v>
+        <v>1.047909176864927</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053719832997762</v>
+        <v>1.045515007461984</v>
       </c>
       <c r="J7">
-        <v>1.039641362670866</v>
+        <v>1.052506141592488</v>
       </c>
       <c r="K7">
-        <v>1.044935169893002</v>
+        <v>1.052465410531197</v>
       </c>
       <c r="L7">
-        <v>1.03182570467936</v>
+        <v>1.047670451442131</v>
       </c>
       <c r="M7">
-        <v>1.012633502723169</v>
+        <v>1.050362710505809</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010337624663075</v>
+        <v>1.046106162565494</v>
       </c>
       <c r="D8">
-        <v>1.026907624903115</v>
+        <v>1.048477973780898</v>
       </c>
       <c r="E8">
-        <v>1.012931418366417</v>
+        <v>1.043516707668985</v>
       </c>
       <c r="F8">
-        <v>0.9885548171276496</v>
+        <v>1.045157897029928</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049047102524406</v>
+        <v>1.044795849028817</v>
       </c>
       <c r="J8">
-        <v>1.031650145910177</v>
+        <v>1.051045146544227</v>
       </c>
       <c r="K8">
-        <v>1.037735044891851</v>
+        <v>1.051175072365081</v>
       </c>
       <c r="L8">
-        <v>1.023939028711824</v>
+        <v>1.046227384526201</v>
       </c>
       <c r="M8">
-        <v>0.9998920855241626</v>
+        <v>1.047864066734268</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9903357867568817</v>
+        <v>1.042686323883652</v>
       </c>
       <c r="D9">
-        <v>1.010922931435621</v>
+        <v>1.045745457720054</v>
       </c>
       <c r="E9">
-        <v>0.9955486834766648</v>
+        <v>1.040507522666603</v>
       </c>
       <c r="F9">
-        <v>0.9615658292896421</v>
+        <v>1.040282770532947</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039955996458092</v>
+        <v>1.043506290413035</v>
       </c>
       <c r="J9">
-        <v>1.01623449044397</v>
+        <v>1.048444071644784</v>
       </c>
       <c r="K9">
-        <v>1.023841243083114</v>
+        <v>1.048876568890984</v>
       </c>
       <c r="L9">
-        <v>1.008714395402633</v>
+        <v>1.043655466099147</v>
       </c>
       <c r="M9">
-        <v>0.9753148533753824</v>
+        <v>1.043431440366487</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9756376487877707</v>
+        <v>1.040389706708624</v>
       </c>
       <c r="D10">
-        <v>0.9991983217734987</v>
+        <v>1.04390945621971</v>
       </c>
       <c r="E10">
-        <v>0.9827809636615716</v>
+        <v>1.038483925979758</v>
       </c>
       <c r="F10">
-        <v>0.9416160044322008</v>
+        <v>1.037013136474426</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033192580249128</v>
+        <v>1.042631234397536</v>
       </c>
       <c r="J10">
-        <v>1.00485234654046</v>
+        <v>1.04669148720943</v>
       </c>
       <c r="K10">
-        <v>1.013582065869906</v>
+        <v>1.047327031238537</v>
       </c>
       <c r="L10">
-        <v>0.9974682320629259</v>
+        <v>1.041920673191322</v>
       </c>
       <c r="M10">
-        <v>0.9571259718381031</v>
+        <v>1.040455119132724</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9688755205696921</v>
+        <v>1.039391103837639</v>
       </c>
       <c r="D11">
-        <v>0.9938114678287149</v>
+        <v>1.043110919184227</v>
       </c>
       <c r="E11">
-        <v>0.9769101500117956</v>
+        <v>1.037603386859923</v>
       </c>
       <c r="F11">
-        <v>0.9323943625096552</v>
+        <v>1.035592402469882</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030061680511134</v>
+        <v>1.042248605766154</v>
       </c>
       <c r="J11">
-        <v>0.9996029905548454</v>
+        <v>1.045928058986171</v>
       </c>
       <c r="K11">
-        <v>1.00885104214086</v>
+        <v>1.046651860020345</v>
       </c>
       <c r="L11">
-        <v>0.9922810513100968</v>
+        <v>1.041164556553122</v>
       </c>
       <c r="M11">
-        <v>0.9487147075634881</v>
+        <v>1.039161017715103</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9662961722352023</v>
+        <v>1.039019539173341</v>
       </c>
       <c r="D12">
-        <v>0.9917580041340316</v>
+        <v>1.042813764316127</v>
       </c>
       <c r="E12">
-        <v>0.9746714497323278</v>
+        <v>1.037275654665206</v>
       </c>
       <c r="F12">
-        <v>0.9288686558832532</v>
+        <v>1.035063906518434</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028864574788565</v>
+        <v>1.042105914145073</v>
       </c>
       <c r="J12">
-        <v>0.9975987510334247</v>
+        <v>1.045643792029412</v>
       </c>
       <c r="K12">
-        <v>1.007044829802839</v>
+        <v>1.046400427866246</v>
       </c>
       <c r="L12">
-        <v>0.9903005425268561</v>
+        <v>1.04088294634763</v>
       </c>
       <c r="M12">
-        <v>0.9454984654974253</v>
+        <v>1.038679504740737</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9668526527010741</v>
+        <v>1.039099270222074</v>
       </c>
       <c r="D13">
-        <v>0.9922009655751306</v>
+        <v>1.042877529784636</v>
       </c>
       <c r="E13">
-        <v>0.9751544039667529</v>
+        <v>1.037345984452274</v>
       </c>
       <c r="F13">
-        <v>0.9296297086687852</v>
+        <v>1.035177306065784</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029122971844759</v>
+        <v>1.04213654772035</v>
       </c>
       <c r="J13">
-        <v>0.9980312416358663</v>
+        <v>1.045704799941843</v>
       </c>
       <c r="K13">
-        <v>1.007434581866605</v>
+        <v>1.046454390211755</v>
       </c>
       <c r="L13">
-        <v>0.9907279113539381</v>
+        <v>1.040943387054764</v>
       </c>
       <c r="M13">
-        <v>0.9461927311029276</v>
+        <v>1.038782828688911</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9686637405427597</v>
+        <v>1.03936040331271</v>
       </c>
       <c r="D14">
-        <v>0.9936428385061616</v>
+        <v>1.043086367406515</v>
       </c>
       <c r="E14">
-        <v>0.9767263246283651</v>
+        <v>1.037576309972282</v>
       </c>
       <c r="F14">
-        <v>0.9321050575948632</v>
+        <v>1.035548732736011</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029963448404012</v>
+        <v>1.042236822424939</v>
       </c>
       <c r="J14">
-        <v>0.9994384693428717</v>
+        <v>1.045904575656244</v>
       </c>
       <c r="K14">
-        <v>1.008702773413838</v>
+        <v>1.046631089750366</v>
       </c>
       <c r="L14">
-        <v>0.9921184777654317</v>
+        <v>1.041141294037581</v>
       </c>
       <c r="M14">
-        <v>0.9484508022992895</v>
+        <v>1.039121232697872</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9697703942724543</v>
+        <v>1.03952121088313</v>
       </c>
       <c r="D15">
-        <v>0.9945240627638385</v>
+        <v>1.043214966907616</v>
       </c>
       <c r="E15">
-        <v>0.9776869298401313</v>
+        <v>1.037718133163988</v>
       </c>
       <c r="F15">
-        <v>0.9336164734806286</v>
+        <v>1.035777477850961</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030476643608438</v>
+        <v>1.042298529730846</v>
       </c>
       <c r="J15">
-        <v>1.000298094830266</v>
+        <v>1.0460275715007</v>
       </c>
       <c r="K15">
-        <v>1.00947748487293</v>
+        <v>1.046739874571711</v>
       </c>
       <c r="L15">
-        <v>0.9929679268059832</v>
+        <v>1.041263130659058</v>
       </c>
       <c r="M15">
-        <v>0.9498295090656222</v>
+        <v>1.03932962437023</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9760774138827071</v>
+        <v>1.040455891908479</v>
       </c>
       <c r="D16">
-        <v>0.9995488138159176</v>
+        <v>1.043962377020215</v>
       </c>
       <c r="E16">
-        <v>0.9831628437976394</v>
+        <v>1.038542272542003</v>
       </c>
       <c r="F16">
-        <v>0.9422146966341846</v>
+        <v>1.037107319114064</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033395801059163</v>
+        <v>1.042656549162241</v>
       </c>
       <c r="J16">
-        <v>1.005193467721004</v>
+        <v>1.046742056550456</v>
       </c>
       <c r="K16">
-        <v>1.013889517635292</v>
+        <v>1.047371750483498</v>
       </c>
       <c r="L16">
-        <v>0.9978053075432592</v>
+        <v>1.041970749007943</v>
       </c>
       <c r="M16">
-        <v>0.957671992053058</v>
+        <v>1.040540889892405</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9799220752518787</v>
+        <v>1.04104107018985</v>
       </c>
       <c r="D17">
-        <v>1.002613835368561</v>
+        <v>1.04443025289377</v>
       </c>
       <c r="E17">
-        <v>0.986501819800736</v>
+        <v>1.039058070460103</v>
       </c>
       <c r="F17">
-        <v>0.947443772078929</v>
+        <v>1.037940146444069</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035170315507821</v>
+        <v>1.042880123548029</v>
       </c>
       <c r="J17">
-        <v>1.00817430006545</v>
+        <v>1.04718900785037</v>
       </c>
       <c r="K17">
-        <v>1.016576189274803</v>
+        <v>1.047766974499816</v>
       </c>
       <c r="L17">
-        <v>1.000750734030821</v>
+        <v>1.042413287871234</v>
       </c>
       <c r="M17">
-        <v>0.9624406363323486</v>
+        <v>1.041299239228586</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9821268262452832</v>
+        <v>1.041381995165396</v>
       </c>
       <c r="D18">
-        <v>1.004372155541241</v>
+        <v>1.044702816552196</v>
       </c>
       <c r="E18">
-        <v>0.9884168653328192</v>
+        <v>1.039358511879342</v>
       </c>
       <c r="F18">
-        <v>0.9504385149536341</v>
+        <v>1.038425443706656</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036186129249115</v>
+        <v>1.043010171900552</v>
       </c>
       <c r="J18">
-        <v>1.00988249069604</v>
+        <v>1.047449269056846</v>
       </c>
       <c r="K18">
-        <v>1.018115844251962</v>
+        <v>1.047997096401105</v>
       </c>
       <c r="L18">
-        <v>1.002438579743046</v>
+        <v>1.042670937541209</v>
       </c>
       <c r="M18">
-        <v>0.965171338719531</v>
+        <v>1.041741058524144</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9828723963665019</v>
+        <v>1.041498174448037</v>
       </c>
       <c r="D19">
-        <v>1.004966864499849</v>
+        <v>1.044795696316228</v>
       </c>
       <c r="E19">
-        <v>0.9890645103284773</v>
+        <v>1.03946088469039</v>
       </c>
       <c r="F19">
-        <v>0.9514506129890655</v>
+        <v>1.038590837458625</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036529336400291</v>
+        <v>1.043054454375422</v>
       </c>
       <c r="J19">
-        <v>1.010459939250747</v>
+        <v>1.04753793749855</v>
       </c>
       <c r="K19">
-        <v>1.01863632427819</v>
+        <v>1.048075493554177</v>
       </c>
       <c r="L19">
-        <v>1.003009139502152</v>
+        <v>1.04275870910367</v>
       </c>
       <c r="M19">
-        <v>0.9660941387393721</v>
+        <v>1.041891621205673</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9795135385941292</v>
+        <v>1.040978327542357</v>
       </c>
       <c r="D20">
-        <v>1.002288073770887</v>
+        <v>1.044380089534075</v>
       </c>
       <c r="E20">
-        <v>0.9861469869122284</v>
+        <v>1.039002773224792</v>
       </c>
       <c r="F20">
-        <v>0.9468885443726279</v>
+        <v>1.037850841466937</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034981940879369</v>
+        <v>1.042856173294769</v>
       </c>
       <c r="J20">
-        <v>1.007857678501606</v>
+        <v>1.0471410995926</v>
       </c>
       <c r="K20">
-        <v>1.016290809124286</v>
+        <v>1.047724612732406</v>
       </c>
       <c r="L20">
-        <v>1.000437878547245</v>
+        <v>1.042365856940996</v>
       </c>
       <c r="M20">
-        <v>0.9619343326499812</v>
+        <v>1.041217928765525</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9681323568916154</v>
+        <v>1.039283523891497</v>
       </c>
       <c r="D21">
-        <v>0.9932197472072949</v>
+        <v>1.043024885004103</v>
       </c>
       <c r="E21">
-        <v>0.9762650941654103</v>
+        <v>1.037508503196551</v>
       </c>
       <c r="F21">
-        <v>0.9313790159372322</v>
+        <v>1.03543937836913</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029716925604808</v>
+        <v>1.042207309712373</v>
       </c>
       <c r="J21">
-        <v>0.9990256333347062</v>
+        <v>1.045845765994135</v>
       </c>
       <c r="K21">
-        <v>1.008330722272641</v>
+        <v>1.046579073991722</v>
       </c>
       <c r="L21">
-        <v>0.9917105292177287</v>
+        <v>1.041083036303016</v>
       </c>
       <c r="M21">
-        <v>0.9477884985670993</v>
+        <v>1.039021604154994</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9605803843440249</v>
+        <v>1.038214228281512</v>
       </c>
       <c r="D22">
-        <v>0.987210233714389</v>
+        <v>1.042169668734791</v>
       </c>
       <c r="E22">
-        <v>0.9697119966851789</v>
+        <v>1.036565166579316</v>
       </c>
       <c r="F22">
-        <v>0.9210383428360521</v>
+        <v>1.03391871526484</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026206574001731</v>
+        <v>1.04179606345203</v>
       </c>
       <c r="J22">
-        <v>0.9931538267245352</v>
+        <v>1.045027306806334</v>
       </c>
       <c r="K22">
-        <v>1.003039388707836</v>
+        <v>1.045855099758329</v>
       </c>
       <c r="L22">
-        <v>0.9859083284308181</v>
+        <v>1.040272102514071</v>
       </c>
       <c r="M22">
-        <v>0.9383550018302121</v>
+        <v>1.037635895793614</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9646244255108301</v>
+        <v>1.038781438468125</v>
       </c>
       <c r="D23">
-        <v>0.9904274931722571</v>
+        <v>1.042623337042272</v>
       </c>
       <c r="E23">
-        <v>0.9732206997945578</v>
+        <v>1.037065614723797</v>
       </c>
       <c r="F23">
-        <v>0.9265809905011754</v>
+        <v>1.034725281276493</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028087897980257</v>
+        <v>1.042014386099494</v>
       </c>
       <c r="J23">
-        <v>0.996299205199211</v>
+        <v>1.045461573864113</v>
       </c>
       <c r="K23">
-        <v>1.005873727966541</v>
+        <v>1.046239249269266</v>
       </c>
       <c r="L23">
-        <v>0.9890163919366247</v>
+        <v>1.040702412686787</v>
       </c>
       <c r="M23">
-        <v>0.943411519253596</v>
+        <v>1.038370948529391</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9796982548825532</v>
+        <v>1.041006679478637</v>
       </c>
       <c r="D24">
-        <v>1.002435361999529</v>
+        <v>1.044402757248873</v>
       </c>
       <c r="E24">
-        <v>0.9863074206397927</v>
+        <v>1.039027760946687</v>
       </c>
       <c r="F24">
-        <v>0.9471395977926995</v>
+        <v>1.037891196014701</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035067118416362</v>
+        <v>1.042866996491891</v>
       </c>
       <c r="J24">
-        <v>1.008000839888132</v>
+        <v>1.047162748625098</v>
       </c>
       <c r="K24">
-        <v>1.016419844505978</v>
+        <v>1.047743755444758</v>
       </c>
       <c r="L24">
-        <v>1.000579337266652</v>
+        <v>1.042387290406636</v>
       </c>
       <c r="M24">
-        <v>0.9621632655301391</v>
+        <v>1.041254671048467</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9957252464543276</v>
+        <v>1.043573324109701</v>
       </c>
       <c r="D25">
-        <v>1.015226962758228</v>
+        <v>1.046454360300126</v>
       </c>
       <c r="E25">
-        <v>1.00023196803489</v>
+        <v>1.041288497790537</v>
       </c>
       <c r="F25">
-        <v>0.9688534621351867</v>
+        <v>1.041546450985279</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042419647689175</v>
+        <v>1.043842351847972</v>
       </c>
       <c r="J25">
-        <v>1.020397334517971</v>
+        <v>1.049119731292235</v>
       </c>
       <c r="K25">
-        <v>1.027593410500315</v>
+        <v>1.049473778155196</v>
       </c>
       <c r="L25">
-        <v>1.012826684065352</v>
+        <v>1.044323877600715</v>
       </c>
       <c r="M25">
-        <v>0.9819553303529546</v>
+        <v>1.044581029646666</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_155/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_155/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.045608419067008</v>
+        <v>1.007551759359026</v>
       </c>
       <c r="D2">
-        <v>1.048080382523962</v>
+        <v>1.024679556814557</v>
       </c>
       <c r="E2">
-        <v>1.043079053674487</v>
+        <v>1.010510230679907</v>
       </c>
       <c r="F2">
-        <v>1.044447821620052</v>
+        <v>0.9848042792019281</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044609206762441</v>
+        <v>1.047789978068031</v>
       </c>
       <c r="J2">
-        <v>1.050667243542235</v>
+        <v>1.02950892106053</v>
       </c>
       <c r="K2">
-        <v>1.050841225952017</v>
+        <v>1.03580544867882</v>
       </c>
       <c r="L2">
-        <v>1.045853932001868</v>
+        <v>1.021825057771939</v>
       </c>
       <c r="M2">
-        <v>1.047218844371849</v>
+        <v>0.9964794540872618</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.047079355999303</v>
+        <v>1.015671116225087</v>
       </c>
       <c r="D3">
-        <v>1.049255227248778</v>
+        <v>1.031174512659431</v>
       </c>
       <c r="E3">
-        <v>1.044372084595887</v>
+        <v>1.017566493164584</v>
       </c>
       <c r="F3">
-        <v>1.046546796370809</v>
+        <v>0.9957293200944402</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045159702223752</v>
+        <v>1.051444533097153</v>
       </c>
       <c r="J3">
-        <v>1.051783338939877</v>
+        <v>1.035743499782389</v>
       </c>
       <c r="K3">
-        <v>1.051827104596299</v>
+        <v>1.041423462402834</v>
       </c>
       <c r="L3">
-        <v>1.046956663991478</v>
+        <v>1.027979434937705</v>
       </c>
       <c r="M3">
-        <v>1.049125703094741</v>
+        <v>1.00641713829836</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.048028127108215</v>
+        <v>1.020732079167526</v>
       </c>
       <c r="D4">
-        <v>1.050012815318831</v>
+        <v>1.03522475851498</v>
       </c>
       <c r="E4">
-        <v>1.045205566982231</v>
+        <v>1.021964181356151</v>
       </c>
       <c r="F4">
-        <v>1.047901574026911</v>
+        <v>1.002531330353554</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04551302914096</v>
+        <v>1.05370733995578</v>
       </c>
       <c r="J4">
-        <v>1.052502111585901</v>
+        <v>1.039619923543794</v>
       </c>
       <c r="K4">
-        <v>1.052461852011942</v>
+        <v>1.044915856439336</v>
       </c>
       <c r="L4">
-        <v>1.047666472505621</v>
+        <v>1.031804552770674</v>
       </c>
       <c r="M4">
-        <v>1.050355808828113</v>
+        <v>1.012599300155587</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.048426278985596</v>
+        <v>1.022816639172133</v>
       </c>
       <c r="D5">
-        <v>1.050330688430902</v>
+        <v>1.036893355305642</v>
       </c>
       <c r="E5">
-        <v>1.04555520894601</v>
+        <v>1.023775321252273</v>
       </c>
       <c r="F5">
-        <v>1.048470330578879</v>
+        <v>1.005331671091243</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045660883694323</v>
+        <v>1.054635701509053</v>
       </c>
       <c r="J5">
-        <v>1.052803475951626</v>
+        <v>1.041214238701091</v>
       </c>
       <c r="K5">
-        <v>1.052727946741117</v>
+        <v>1.046352038847486</v>
       </c>
       <c r="L5">
-        <v>1.047963992580435</v>
+        <v>1.03337739826833</v>
       </c>
       <c r="M5">
-        <v>1.05087206533389</v>
+        <v>1.015143174120571</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048493089071074</v>
+        <v>1.02316420408542</v>
       </c>
       <c r="D6">
-        <v>1.050384024812592</v>
+        <v>1.037171582942694</v>
       </c>
       <c r="E6">
-        <v>1.045613871467582</v>
+        <v>1.024077282820365</v>
       </c>
       <c r="F6">
-        <v>1.048565781495502</v>
+        <v>1.005798515752248</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045685669168332</v>
+        <v>1.054790273436132</v>
       </c>
       <c r="J6">
-        <v>1.052854029284221</v>
+        <v>1.041479925253324</v>
       </c>
       <c r="K6">
-        <v>1.052772581306626</v>
+        <v>1.046591361460445</v>
       </c>
       <c r="L6">
-        <v>1.04801389600083</v>
+        <v>1.033639484694364</v>
       </c>
       <c r="M6">
-        <v>1.050958696051607</v>
+        <v>1.015567186528829</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.048033450013649</v>
+        <v>1.020760098553728</v>
       </c>
       <c r="D7">
-        <v>1.050017065167761</v>
+        <v>1.035247185542052</v>
       </c>
       <c r="E7">
-        <v>1.045210241864725</v>
+        <v>1.021988526575919</v>
       </c>
       <c r="F7">
-        <v>1.047909176864927</v>
+        <v>1.002568975479992</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045515007461984</v>
+        <v>1.053719832997762</v>
       </c>
       <c r="J7">
-        <v>1.052506141592488</v>
+        <v>1.039641362670865</v>
       </c>
       <c r="K7">
-        <v>1.052465410531197</v>
+        <v>1.044935169893001</v>
       </c>
       <c r="L7">
-        <v>1.047670451442131</v>
+        <v>1.03182570467936</v>
       </c>
       <c r="M7">
-        <v>1.050362710505809</v>
+        <v>1.012633502723169</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.046106162565494</v>
+        <v>1.010337624663075</v>
       </c>
       <c r="D8">
-        <v>1.048477973780898</v>
+        <v>1.026907624903115</v>
       </c>
       <c r="E8">
-        <v>1.043516707668985</v>
+        <v>1.012931418366416</v>
       </c>
       <c r="F8">
-        <v>1.045157897029928</v>
+        <v>0.9885548171276486</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044795849028817</v>
+        <v>1.049047102524405</v>
       </c>
       <c r="J8">
-        <v>1.051045146544227</v>
+        <v>1.031650145910176</v>
       </c>
       <c r="K8">
-        <v>1.051175072365081</v>
+        <v>1.03773504489185</v>
       </c>
       <c r="L8">
-        <v>1.046227384526201</v>
+        <v>1.023939028711824</v>
       </c>
       <c r="M8">
-        <v>1.047864066734268</v>
+        <v>0.9998920855241618</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042686323883652</v>
+        <v>0.9903357867568823</v>
       </c>
       <c r="D9">
-        <v>1.045745457720054</v>
+        <v>1.010922931435622</v>
       </c>
       <c r="E9">
-        <v>1.040507522666603</v>
+        <v>0.9955486834766649</v>
       </c>
       <c r="F9">
-        <v>1.040282770532947</v>
+        <v>0.9615658292896425</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043506290413035</v>
+        <v>1.039955996458093</v>
       </c>
       <c r="J9">
-        <v>1.048444071644784</v>
+        <v>1.016234490443971</v>
       </c>
       <c r="K9">
-        <v>1.048876568890984</v>
+        <v>1.023841243083115</v>
       </c>
       <c r="L9">
-        <v>1.043655466099147</v>
+        <v>1.008714395402633</v>
       </c>
       <c r="M9">
-        <v>1.043431440366487</v>
+        <v>0.9753148533753828</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.040389706708624</v>
+        <v>0.9756376487877718</v>
       </c>
       <c r="D10">
-        <v>1.04390945621971</v>
+        <v>0.9991983217735</v>
       </c>
       <c r="E10">
-        <v>1.038483925979758</v>
+        <v>0.9827809636615722</v>
       </c>
       <c r="F10">
-        <v>1.037013136474426</v>
+        <v>0.9416160044322015</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042631234397536</v>
+        <v>1.033192580249129</v>
       </c>
       <c r="J10">
-        <v>1.04669148720943</v>
+        <v>1.004852346540461</v>
       </c>
       <c r="K10">
-        <v>1.047327031238537</v>
+        <v>1.013582065869908</v>
       </c>
       <c r="L10">
-        <v>1.041920673191322</v>
+        <v>0.9974682320629268</v>
       </c>
       <c r="M10">
-        <v>1.040455119132724</v>
+        <v>0.9571259718381039</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.039391103837639</v>
+        <v>0.9688755205696911</v>
       </c>
       <c r="D11">
-        <v>1.043110919184227</v>
+        <v>0.9938114678287142</v>
       </c>
       <c r="E11">
-        <v>1.037603386859923</v>
+        <v>0.9769101500117947</v>
       </c>
       <c r="F11">
-        <v>1.035592402469882</v>
+        <v>0.9323943625096537</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042248605766154</v>
+        <v>1.030061680511134</v>
       </c>
       <c r="J11">
-        <v>1.045928058986171</v>
+        <v>0.9996029905548445</v>
       </c>
       <c r="K11">
-        <v>1.046651860020345</v>
+        <v>1.008851042140859</v>
       </c>
       <c r="L11">
-        <v>1.041164556553122</v>
+        <v>0.9922810513100961</v>
       </c>
       <c r="M11">
-        <v>1.039161017715103</v>
+        <v>0.9487147075634866</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.039019539173341</v>
+        <v>0.9662961722352031</v>
       </c>
       <c r="D12">
-        <v>1.042813764316127</v>
+        <v>0.9917580041340324</v>
       </c>
       <c r="E12">
-        <v>1.037275654665206</v>
+        <v>0.9746714497323289</v>
       </c>
       <c r="F12">
-        <v>1.035063906518434</v>
+        <v>0.9288686558832541</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042105914145073</v>
+        <v>1.028864574788566</v>
       </c>
       <c r="J12">
-        <v>1.045643792029412</v>
+        <v>0.9975987510334257</v>
       </c>
       <c r="K12">
-        <v>1.046400427866246</v>
+        <v>1.00704482980284</v>
       </c>
       <c r="L12">
-        <v>1.04088294634763</v>
+        <v>0.9903005425268571</v>
       </c>
       <c r="M12">
-        <v>1.038679504740737</v>
+        <v>0.9454984654974262</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.039099270222074</v>
+        <v>0.9668526527010727</v>
       </c>
       <c r="D13">
-        <v>1.042877529784636</v>
+        <v>0.9922009655751295</v>
       </c>
       <c r="E13">
-        <v>1.037345984452274</v>
+        <v>0.9751544039667517</v>
       </c>
       <c r="F13">
-        <v>1.035177306065784</v>
+        <v>0.9296297086687838</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04213654772035</v>
+        <v>1.029122971844759</v>
       </c>
       <c r="J13">
-        <v>1.045704799941843</v>
+        <v>0.998031241635865</v>
       </c>
       <c r="K13">
-        <v>1.046454390211755</v>
+        <v>1.007434581866604</v>
       </c>
       <c r="L13">
-        <v>1.040943387054764</v>
+        <v>0.990727911353937</v>
       </c>
       <c r="M13">
-        <v>1.038782828688911</v>
+        <v>0.9461927311029262</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.03936040331271</v>
+        <v>0.9686637405427583</v>
       </c>
       <c r="D14">
-        <v>1.043086367406515</v>
+        <v>0.9936428385061604</v>
       </c>
       <c r="E14">
-        <v>1.037576309972282</v>
+        <v>0.9767263246283632</v>
       </c>
       <c r="F14">
-        <v>1.035548732736011</v>
+        <v>0.9321050575948621</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042236822424939</v>
+        <v>1.029963448404011</v>
       </c>
       <c r="J14">
-        <v>1.045904575656244</v>
+        <v>0.9994384693428704</v>
       </c>
       <c r="K14">
-        <v>1.046631089750366</v>
+        <v>1.008702773413837</v>
       </c>
       <c r="L14">
-        <v>1.041141294037581</v>
+        <v>0.9921184777654301</v>
       </c>
       <c r="M14">
-        <v>1.039121232697872</v>
+        <v>0.9484508022992881</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03952121088313</v>
+        <v>0.9697703942724556</v>
       </c>
       <c r="D15">
-        <v>1.043214966907616</v>
+        <v>0.99452406276384</v>
       </c>
       <c r="E15">
-        <v>1.037718133163988</v>
+        <v>0.9776869298401323</v>
       </c>
       <c r="F15">
-        <v>1.035777477850961</v>
+        <v>0.933616473480631</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042298529730846</v>
+        <v>1.030476643608438</v>
       </c>
       <c r="J15">
-        <v>1.0460275715007</v>
+        <v>1.000298094830268</v>
       </c>
       <c r="K15">
-        <v>1.046739874571711</v>
+        <v>1.009477484872932</v>
       </c>
       <c r="L15">
-        <v>1.041263130659058</v>
+        <v>0.9929679268059846</v>
       </c>
       <c r="M15">
-        <v>1.03932962437023</v>
+        <v>0.9498295090656248</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.040455891908479</v>
+        <v>0.9760774138827073</v>
       </c>
       <c r="D16">
-        <v>1.043962377020215</v>
+        <v>0.9995488138159183</v>
       </c>
       <c r="E16">
-        <v>1.038542272542003</v>
+        <v>0.9831628437976399</v>
       </c>
       <c r="F16">
-        <v>1.037107319114064</v>
+        <v>0.9422146966341856</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042656549162241</v>
+        <v>1.033395801059163</v>
       </c>
       <c r="J16">
-        <v>1.046742056550456</v>
+        <v>1.005193467721004</v>
       </c>
       <c r="K16">
-        <v>1.047371750483498</v>
+        <v>1.013889517635292</v>
       </c>
       <c r="L16">
-        <v>1.041970749007943</v>
+        <v>0.9978053075432595</v>
       </c>
       <c r="M16">
-        <v>1.040540889892405</v>
+        <v>0.957671992053059</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.04104107018985</v>
+        <v>0.9799220752518758</v>
       </c>
       <c r="D17">
-        <v>1.04443025289377</v>
+        <v>1.002613835368559</v>
       </c>
       <c r="E17">
-        <v>1.039058070460103</v>
+        <v>0.9865018198007333</v>
       </c>
       <c r="F17">
-        <v>1.037940146444069</v>
+        <v>0.9474437720789263</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042880123548029</v>
+        <v>1.03517031550782</v>
       </c>
       <c r="J17">
-        <v>1.04718900785037</v>
+        <v>1.008174300065447</v>
       </c>
       <c r="K17">
-        <v>1.047766974499816</v>
+        <v>1.0165761892748</v>
       </c>
       <c r="L17">
-        <v>1.042413287871234</v>
+        <v>1.000750734030819</v>
       </c>
       <c r="M17">
-        <v>1.041299239228586</v>
+        <v>0.9624406363323458</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041381995165396</v>
+        <v>0.9821268262452819</v>
       </c>
       <c r="D18">
-        <v>1.044702816552196</v>
+        <v>1.00437215554124</v>
       </c>
       <c r="E18">
-        <v>1.039358511879342</v>
+        <v>0.9884168653328181</v>
       </c>
       <c r="F18">
-        <v>1.038425443706656</v>
+        <v>0.9504385149536326</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043010171900552</v>
+        <v>1.036186129249114</v>
       </c>
       <c r="J18">
-        <v>1.047449269056846</v>
+        <v>1.009882490696039</v>
       </c>
       <c r="K18">
-        <v>1.047997096401105</v>
+        <v>1.018115844251961</v>
       </c>
       <c r="L18">
-        <v>1.042670937541209</v>
+        <v>1.002438579743045</v>
       </c>
       <c r="M18">
-        <v>1.041741058524144</v>
+        <v>0.9651713387195293</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041498174448037</v>
+        <v>0.9828723963665011</v>
       </c>
       <c r="D19">
-        <v>1.044795696316228</v>
+        <v>1.004966864499848</v>
       </c>
       <c r="E19">
-        <v>1.03946088469039</v>
+        <v>0.9890645103284766</v>
       </c>
       <c r="F19">
-        <v>1.038590837458625</v>
+        <v>0.9514506129890651</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043054454375422</v>
+        <v>1.03652933640029</v>
       </c>
       <c r="J19">
-        <v>1.04753793749855</v>
+        <v>1.010459939250746</v>
       </c>
       <c r="K19">
-        <v>1.048075493554177</v>
+        <v>1.018636324278189</v>
       </c>
       <c r="L19">
-        <v>1.04275870910367</v>
+        <v>1.003009139502151</v>
       </c>
       <c r="M19">
-        <v>1.041891621205673</v>
+        <v>0.9660941387393717</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.040978327542357</v>
+        <v>0.9795135385941294</v>
       </c>
       <c r="D20">
-        <v>1.044380089534075</v>
+        <v>1.002288073770887</v>
       </c>
       <c r="E20">
-        <v>1.039002773224792</v>
+        <v>0.9861469869122286</v>
       </c>
       <c r="F20">
-        <v>1.037850841466937</v>
+        <v>0.946888544372628</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042856173294769</v>
+        <v>1.034981940879369</v>
       </c>
       <c r="J20">
-        <v>1.0471410995926</v>
+        <v>1.007857678501606</v>
       </c>
       <c r="K20">
-        <v>1.047724612732406</v>
+        <v>1.016290809124286</v>
       </c>
       <c r="L20">
-        <v>1.042365856940996</v>
+        <v>1.000437878547245</v>
       </c>
       <c r="M20">
-        <v>1.041217928765525</v>
+        <v>0.9619343326499812</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.039283523891497</v>
+        <v>0.9681323568916159</v>
       </c>
       <c r="D21">
-        <v>1.043024885004103</v>
+        <v>0.993219747207296</v>
       </c>
       <c r="E21">
-        <v>1.037508503196551</v>
+        <v>0.9762650941654106</v>
       </c>
       <c r="F21">
-        <v>1.03543937836913</v>
+        <v>0.9313790159372329</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042207309712373</v>
+        <v>1.029716925604809</v>
       </c>
       <c r="J21">
-        <v>1.045845765994135</v>
+        <v>0.9990256333347068</v>
       </c>
       <c r="K21">
-        <v>1.046579073991722</v>
+        <v>1.008330722272642</v>
       </c>
       <c r="L21">
-        <v>1.041083036303016</v>
+        <v>0.991710529217729</v>
       </c>
       <c r="M21">
-        <v>1.039021604154994</v>
+        <v>0.9477884985671002</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.038214228281512</v>
+        <v>0.9605803843440234</v>
       </c>
       <c r="D22">
-        <v>1.042169668734791</v>
+        <v>0.9872102337143875</v>
       </c>
       <c r="E22">
-        <v>1.036565166579316</v>
+        <v>0.9697119966851774</v>
       </c>
       <c r="F22">
-        <v>1.03391871526484</v>
+        <v>0.9210383428360507</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04179606345203</v>
+        <v>1.02620657400173</v>
       </c>
       <c r="J22">
-        <v>1.045027306806334</v>
+        <v>0.9931538267245336</v>
       </c>
       <c r="K22">
-        <v>1.045855099758329</v>
+        <v>1.003039388707835</v>
       </c>
       <c r="L22">
-        <v>1.040272102514071</v>
+        <v>0.9859083284308165</v>
       </c>
       <c r="M22">
-        <v>1.037635895793614</v>
+        <v>0.9383550018302107</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.038781438468125</v>
+        <v>0.9646244255108291</v>
       </c>
       <c r="D23">
-        <v>1.042623337042272</v>
+        <v>0.990427493172256</v>
       </c>
       <c r="E23">
-        <v>1.037065614723797</v>
+        <v>0.9732206997945571</v>
       </c>
       <c r="F23">
-        <v>1.034725281276493</v>
+        <v>0.9265809905011745</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042014386099494</v>
+        <v>1.028087897980257</v>
       </c>
       <c r="J23">
-        <v>1.045461573864113</v>
+        <v>0.99629920519921</v>
       </c>
       <c r="K23">
-        <v>1.046239249269266</v>
+        <v>1.00587372796654</v>
       </c>
       <c r="L23">
-        <v>1.040702412686787</v>
+        <v>0.9890163919366239</v>
       </c>
       <c r="M23">
-        <v>1.038370948529391</v>
+        <v>0.9434115192535953</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041006679478637</v>
+        <v>0.9796982548825535</v>
       </c>
       <c r="D24">
-        <v>1.044402757248873</v>
+        <v>1.002435361999529</v>
       </c>
       <c r="E24">
-        <v>1.039027760946687</v>
+        <v>0.986307420639793</v>
       </c>
       <c r="F24">
-        <v>1.037891196014701</v>
+        <v>0.947139597792699</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042866996491891</v>
+        <v>1.035067118416362</v>
       </c>
       <c r="J24">
-        <v>1.047162748625098</v>
+        <v>1.008000839888132</v>
       </c>
       <c r="K24">
-        <v>1.047743755444758</v>
+        <v>1.016419844505978</v>
       </c>
       <c r="L24">
-        <v>1.042387290406636</v>
+        <v>1.000579337266652</v>
       </c>
       <c r="M24">
-        <v>1.041254671048467</v>
+        <v>0.9621632655301386</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043573324109701</v>
+        <v>0.9957252464543271</v>
       </c>
       <c r="D25">
-        <v>1.046454360300126</v>
+        <v>1.015226962758227</v>
       </c>
       <c r="E25">
-        <v>1.041288497790537</v>
+        <v>1.000231968034889</v>
       </c>
       <c r="F25">
-        <v>1.041546450985279</v>
+        <v>0.9688534621351862</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043842351847972</v>
+        <v>1.042419647689175</v>
       </c>
       <c r="J25">
-        <v>1.049119731292235</v>
+        <v>1.02039733451797</v>
       </c>
       <c r="K25">
-        <v>1.049473778155196</v>
+        <v>1.027593410500314</v>
       </c>
       <c r="L25">
-        <v>1.044323877600715</v>
+        <v>1.012826684065351</v>
       </c>
       <c r="M25">
-        <v>1.044581029646666</v>
+        <v>0.9819553303529538</v>
       </c>
     </row>
   </sheetData>
